--- a/Data/Bilançolar/AYCES.xlsx
+++ b/Data/Bilançolar/AYCES.xlsx
@@ -15430,7 +15430,7 @@
         <v>398789</v>
       </c>
       <c r="C86" t="n">
-        <v>514695</v>
+        <v>346133</v>
       </c>
       <c r="D86" t="n">
         <v>960547</v>
@@ -15955,7 +15955,7 @@
         <v>-12646652</v>
       </c>
       <c r="C89" t="n">
-        <v>-9663147</v>
+        <v>-9831709</v>
       </c>
       <c r="D89" t="n">
         <v>17585863</v>
@@ -17005,7 +17005,7 @@
         <v>-12790008</v>
       </c>
       <c r="C95" t="n">
-        <v>-9663147</v>
+        <v>-9831709</v>
       </c>
       <c r="D95" t="n">
         <v>17661656</v>
@@ -17180,7 +17180,7 @@
         <v>1188652</v>
       </c>
       <c r="C96" t="n">
-        <v>507857</v>
+        <v>676419</v>
       </c>
       <c r="D96" t="n">
         <v>1509957</v>
@@ -19980,7 +19980,7 @@
         <v>-1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -20155,7 +20155,7 @@
         <v>-1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D113" t="n">
         <v>1</v>
@@ -20330,7 +20330,7 @@
         <v>-1</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
